--- a/public/mau.xlsx
+++ b/public/mau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sarita\qlk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B8A00E-6E81-4F20-8EF8-91E82EADA58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E528590F-2C63-4C26-8953-7EBDBBC62988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0EE1397A-F59D-4B8C-997A-C3CED359D811}"/>
   </bookViews>
@@ -481,36 +481,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -526,6 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +517,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,6 +529,31 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,13 +579,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>69849</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>18646</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -614,7 +614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69849" y="44450"/>
+          <a:off x="69849" y="88900"/>
           <a:ext cx="602847" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -949,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,18 +964,18 @@
     <col min="7" max="7" width="35.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -997,16 +997,16 @@
     </row>
     <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1028,16 +1028,16 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1085,15 +1085,15 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1114,15 +1114,15 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1143,15 +1143,15 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1172,13 +1172,13 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1199,17 +1199,17 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="49" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1230,15 +1230,15 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1267,11 +1267,11 @@
       <c r="D11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1346,23 +1346,23 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="41" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="1"/>
@@ -1385,17 +1385,17 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1602,18 +1602,18 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="52" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="22" t="s">
         <v>36</v>
       </c>
@@ -1637,18 +1637,18 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1753,16 +1753,16 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="23" t="s">
         <v>37</v>
       </c>
@@ -1814,14 +1814,14 @@
     </row>
     <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -27979,6 +27979,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A5:G5"/>
@@ -27995,19 +28008,6 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
